--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icbfsfood-my.sharepoint.com/personal/scatalanv_icbfs_cl/Documents/posicionamiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4341" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C8A5A3-4C96-48F6-B97B-B08D472681F6}"/>
+  <xr:revisionPtr revIDLastSave="4350" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A0B1BA0-2D43-4923-85DD-61E9011C5DF4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22759,8 +22759,8 @@
   <dimension ref="A1:L939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L820" sqref="L820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51789,6 +51789,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L939" xr:uid="{D507D2F6-219C-44EE-8F13-68F6A84834B5}"/>
   <hyperlinks>
     <hyperlink ref="F482" r:id="rId1" xr:uid="{B8A99D23-CCD3-4507-B1C1-F297A3CD9A42}"/>
     <hyperlink ref="F484" r:id="rId2" xr:uid="{BEBB2D9E-08F4-40D9-8C60-12C2F1BA1BE7}"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icbfsfood-my.sharepoint.com/personal/scatalanv_icbfs_cl/Documents/posicionamiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4350" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A0B1BA0-2D43-4923-85DD-61E9011C5DF4}"/>
+  <xr:revisionPtr revIDLastSave="4352" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87F611AC-D297-4397-84C1-AB91217DA974}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="5" r:id="rId1"/>
@@ -22487,10 +22487,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22759,8 +22755,8 @@
   <dimension ref="A1:L939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L820" sqref="L820"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I259" sqref="I259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51789,7 +51785,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L939" xr:uid="{D507D2F6-219C-44EE-8F13-68F6A84834B5}"/>
   <hyperlinks>
     <hyperlink ref="F482" r:id="rId1" xr:uid="{B8A99D23-CCD3-4507-B1C1-F297A3CD9A42}"/>
     <hyperlink ref="F484" r:id="rId2" xr:uid="{BEBB2D9E-08F4-40D9-8C60-12C2F1BA1BE7}"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icbfsfood-my.sharepoint.com/personal/scatalanv_icbfs_cl/Documents/posicionamiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4352" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87F611AC-D297-4397-84C1-AB91217DA974}"/>
+  <xr:revisionPtr revIDLastSave="4630" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD80AE7A-A813-4683-9EAC-C9CC482171B8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$L$939</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$L$993</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="1112">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -3250,6 +3250,135 @@
   </si>
   <si>
     <t>otros</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/304460002</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/300404007</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/300406003</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/304420001</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/204180025</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/200250039</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/202730011</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/200201032</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/202730014</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/202730039</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/202720006</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/204310013</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/202730017</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/202720033</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/204310008</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/100753002</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/304430000</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/100004001</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/202910013</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/202910014</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/304760227</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/304760001</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/304760108</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/200455004</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/200455003</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/101353011</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/101353038</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/103880017</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/300353024</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/202730070</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/200200010</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/101403002</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/101400001</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/103070006</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/101403004</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/200460023</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/200460018</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/203210096</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/300407004</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/300407001</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/100050007</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/202910045</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/200300002</t>
   </si>
 </sst>
 </file>
@@ -3316,7 +3445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3330,6 +3459,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -22752,11 +22884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D507D2F6-219C-44EE-8F13-68F6A84834B5}">
-  <dimension ref="A1:L939"/>
+  <dimension ref="A1:L993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I259" sqref="I259"/>
+      <pane ySplit="1" topLeftCell="A950" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E952" sqref="E952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51782,6 +51914,1684 @@
       </c>
       <c r="L939" t="s">
         <v>1065</v>
+      </c>
+    </row>
+    <row r="940" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A940">
+        <v>104500500</v>
+      </c>
+      <c r="B940" t="s">
+        <v>73</v>
+      </c>
+      <c r="C940" s="1"/>
+      <c r="E940" t="s">
+        <v>584</v>
+      </c>
+      <c r="F940" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G940">
+        <v>6153</v>
+      </c>
+      <c r="H940">
+        <v>1</v>
+      </c>
+      <c r="I940" s="5">
+        <f>G940/H940</f>
+        <v>6153</v>
+      </c>
+      <c r="J940" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L940" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="941" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A941">
+        <v>104519930</v>
+      </c>
+      <c r="B941" t="s">
+        <v>74</v>
+      </c>
+      <c r="C941" s="1"/>
+      <c r="E941" t="s">
+        <v>584</v>
+      </c>
+      <c r="F941" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G941">
+        <v>7431</v>
+      </c>
+      <c r="H941">
+        <f>_xlfn.XLOOKUP(A941,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
+        <v>1</v>
+      </c>
+      <c r="I941" s="5">
+        <f t="shared" ref="I941:I950" si="35">G941/H941</f>
+        <v>7431</v>
+      </c>
+      <c r="J941" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L941" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="942" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A942">
+        <v>104520790</v>
+      </c>
+      <c r="B942" t="s">
+        <v>75</v>
+      </c>
+      <c r="C942" s="1"/>
+      <c r="E942" t="s">
+        <v>584</v>
+      </c>
+      <c r="F942" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G942">
+        <v>7932</v>
+      </c>
+      <c r="H942">
+        <v>1</v>
+      </c>
+      <c r="I942" s="5">
+        <f t="shared" si="35"/>
+        <v>7932</v>
+      </c>
+      <c r="J942" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L942" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="943" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A943">
+        <v>104529870</v>
+      </c>
+      <c r="B943" t="s">
+        <v>76</v>
+      </c>
+      <c r="C943" s="1"/>
+      <c r="E943" t="s">
+        <v>584</v>
+      </c>
+      <c r="F943" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G943">
+        <v>19566</v>
+      </c>
+      <c r="H943">
+        <v>2.27</v>
+      </c>
+      <c r="I943" s="5">
+        <f t="shared" si="35"/>
+        <v>8619.3832599118941</v>
+      </c>
+      <c r="J943" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L943" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="944" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A944">
+        <v>104527430</v>
+      </c>
+      <c r="B944" t="s">
+        <v>77</v>
+      </c>
+      <c r="C944" s="1"/>
+      <c r="E944" t="s">
+        <v>584</v>
+      </c>
+      <c r="F944" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G944">
+        <v>3070</v>
+      </c>
+      <c r="H944">
+        <v>1</v>
+      </c>
+      <c r="I944" s="5">
+        <f t="shared" si="35"/>
+        <v>3070</v>
+      </c>
+      <c r="J944" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L944" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="945" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A945">
+        <v>104529210</v>
+      </c>
+      <c r="B945" t="s">
+        <v>78</v>
+      </c>
+      <c r="C945" s="1"/>
+      <c r="E945" t="s">
+        <v>584</v>
+      </c>
+      <c r="F945" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G945">
+        <v>4000</v>
+      </c>
+      <c r="H945">
+        <v>1</v>
+      </c>
+      <c r="I945" s="5">
+        <f t="shared" si="35"/>
+        <v>4000</v>
+      </c>
+      <c r="J945" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L945" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="946" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A946">
+        <v>104527520</v>
+      </c>
+      <c r="B946" t="s">
+        <v>79</v>
+      </c>
+      <c r="C946" s="1"/>
+      <c r="E946" t="s">
+        <v>584</v>
+      </c>
+      <c r="F946" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G946">
+        <v>3070</v>
+      </c>
+      <c r="H946">
+        <v>1</v>
+      </c>
+      <c r="I946" s="5">
+        <f t="shared" si="35"/>
+        <v>3070</v>
+      </c>
+      <c r="J946" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L946" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="947" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A947">
+        <v>104254150</v>
+      </c>
+      <c r="B947" t="s">
+        <v>81</v>
+      </c>
+      <c r="C947" s="1"/>
+      <c r="E947" t="s">
+        <v>584</v>
+      </c>
+      <c r="F947" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G947">
+        <v>22536</v>
+      </c>
+      <c r="H947">
+        <f>36 * 0.067</f>
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="I947" s="5">
+        <f t="shared" si="35"/>
+        <v>9343.2835820895525</v>
+      </c>
+      <c r="J947" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L947" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="948" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A948">
+        <v>104523150</v>
+      </c>
+      <c r="B948" t="s">
+        <v>82</v>
+      </c>
+      <c r="C948" s="1"/>
+      <c r="E948" t="s">
+        <v>584</v>
+      </c>
+      <c r="F948" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G948">
+        <v>37158</v>
+      </c>
+      <c r="H948">
+        <f>48*0.012</f>
+        <v>0.57600000000000007</v>
+      </c>
+      <c r="I948" s="5">
+        <f t="shared" si="35"/>
+        <v>64510.416666666657</v>
+      </c>
+      <c r="J948" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L948" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="949" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A949">
+        <v>104523170</v>
+      </c>
+      <c r="B949" t="s">
+        <v>83</v>
+      </c>
+      <c r="C949" s="1"/>
+      <c r="E949" t="s">
+        <v>584</v>
+      </c>
+      <c r="F949" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G949">
+        <v>27102</v>
+      </c>
+      <c r="H949">
+        <f>90*0.02</f>
+        <v>1.8</v>
+      </c>
+      <c r="I949" s="5">
+        <f t="shared" si="35"/>
+        <v>15056.666666666666</v>
+      </c>
+      <c r="J949" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L949" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="950" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A950">
+        <v>105154330</v>
+      </c>
+      <c r="B950" t="s">
+        <v>84</v>
+      </c>
+      <c r="C950" s="1"/>
+      <c r="E950" t="s">
+        <v>584</v>
+      </c>
+      <c r="F950" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G950">
+        <v>62734</v>
+      </c>
+      <c r="H950">
+        <f>48 * 0.08</f>
+        <v>3.84</v>
+      </c>
+      <c r="I950" s="5">
+        <f t="shared" si="35"/>
+        <v>16336.979166666668</v>
+      </c>
+      <c r="J950" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L950" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="951" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A951">
+        <v>104527850</v>
+      </c>
+      <c r="B951" t="s">
+        <v>85</v>
+      </c>
+      <c r="C951" s="1"/>
+      <c r="E951" t="s">
+        <v>584</v>
+      </c>
+      <c r="F951" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G951">
+        <v>22536</v>
+      </c>
+      <c r="H951">
+        <f>36 * 0.067</f>
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="I951" s="5">
+        <f t="shared" ref="I951:I993" si="36">G951/H951</f>
+        <v>9343.2835820895525</v>
+      </c>
+      <c r="J951" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L951" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="952" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A952">
+        <v>105154770</v>
+      </c>
+      <c r="B952" t="s">
+        <v>86</v>
+      </c>
+      <c r="C952" s="1"/>
+      <c r="E952" t="s">
+        <v>584</v>
+      </c>
+      <c r="F952" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G952">
+        <v>22536</v>
+      </c>
+      <c r="H952">
+        <f>36 * 0.067</f>
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="I952" s="5">
+        <f t="shared" si="36"/>
+        <v>9343.2835820895525</v>
+      </c>
+      <c r="J952" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L952" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="953" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A953">
+        <v>104537940</v>
+      </c>
+      <c r="B953" t="s">
+        <v>87</v>
+      </c>
+      <c r="C953" s="1"/>
+      <c r="E953" t="s">
+        <v>584</v>
+      </c>
+      <c r="F953" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G953">
+        <v>47198</v>
+      </c>
+      <c r="H953">
+        <f>63*0.114</f>
+        <v>7.1820000000000004</v>
+      </c>
+      <c r="I953" s="5">
+        <f t="shared" si="36"/>
+        <v>6571.7070453912556</v>
+      </c>
+      <c r="J953" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L953" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="954" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A954">
+        <v>105154610</v>
+      </c>
+      <c r="B954" t="s">
+        <v>88</v>
+      </c>
+      <c r="C954" s="1"/>
+      <c r="E954" t="s">
+        <v>584</v>
+      </c>
+      <c r="F954" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G954">
+        <v>38151</v>
+      </c>
+      <c r="H954">
+        <f>14 * 0.1</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I954" s="5">
+        <f t="shared" si="36"/>
+        <v>27250.714285714283</v>
+      </c>
+      <c r="J954" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L954" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="955" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A955">
+        <v>104521710</v>
+      </c>
+      <c r="B955" t="s">
+        <v>89</v>
+      </c>
+      <c r="C955" s="1"/>
+      <c r="E955" t="s">
+        <v>584</v>
+      </c>
+      <c r="F955" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G955">
+        <v>25195</v>
+      </c>
+      <c r="H955">
+        <f>36*0.065</f>
+        <v>2.34</v>
+      </c>
+      <c r="I955" s="5">
+        <f t="shared" si="36"/>
+        <v>10767.094017094018</v>
+      </c>
+      <c r="J955" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L955" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="956" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A956">
+        <v>104542880</v>
+      </c>
+      <c r="B956" t="s">
+        <v>91</v>
+      </c>
+      <c r="C956" s="1"/>
+      <c r="E956" t="s">
+        <v>584</v>
+      </c>
+      <c r="F956" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G956">
+        <v>16157</v>
+      </c>
+      <c r="H956">
+        <f>20*0.11</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I956" s="5">
+        <f t="shared" si="36"/>
+        <v>7344.0909090909081</v>
+      </c>
+      <c r="J956" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L956" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="957" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A957">
+        <v>104518330</v>
+      </c>
+      <c r="B957" t="s">
+        <v>93</v>
+      </c>
+      <c r="C957" s="1"/>
+      <c r="E957" t="s">
+        <v>584</v>
+      </c>
+      <c r="F957" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G957">
+        <v>35717</v>
+      </c>
+      <c r="H957">
+        <f>110 * 0.035</f>
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="I957" s="5">
+        <f t="shared" si="36"/>
+        <v>9277.1428571428551</v>
+      </c>
+      <c r="J957" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L957" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="958" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A958">
+        <v>104517170</v>
+      </c>
+      <c r="B958" t="s">
+        <v>96</v>
+      </c>
+      <c r="C958" s="1"/>
+      <c r="E958" t="s">
+        <v>584</v>
+      </c>
+      <c r="F958" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G958">
+        <v>7252</v>
+      </c>
+      <c r="H958">
+        <v>0.35</v>
+      </c>
+      <c r="I958" s="5">
+        <f t="shared" si="36"/>
+        <v>20720</v>
+      </c>
+      <c r="J958" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L958" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="959" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A959">
+        <v>104521840</v>
+      </c>
+      <c r="B959" t="s">
+        <v>97</v>
+      </c>
+      <c r="C959" s="1"/>
+      <c r="E959" t="s">
+        <v>584</v>
+      </c>
+      <c r="F959" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="G959">
+        <v>71944</v>
+      </c>
+      <c r="H959">
+        <v>6.82</v>
+      </c>
+      <c r="I959" s="5">
+        <f t="shared" si="36"/>
+        <v>10548.973607038122</v>
+      </c>
+      <c r="J959" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L959" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="960" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A960">
+        <v>104534790</v>
+      </c>
+      <c r="B960" t="s">
+        <v>98</v>
+      </c>
+      <c r="C960" s="1"/>
+      <c r="E960" t="s">
+        <v>584</v>
+      </c>
+      <c r="F960" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G960">
+        <v>8591</v>
+      </c>
+      <c r="H960">
+        <v>1.36</v>
+      </c>
+      <c r="I960" s="5">
+        <f t="shared" si="36"/>
+        <v>6316.911764705882</v>
+      </c>
+      <c r="J960" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L960" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="961" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A961">
+        <v>104547160</v>
+      </c>
+      <c r="B961" t="s">
+        <v>99</v>
+      </c>
+      <c r="C961" s="1"/>
+      <c r="E961" t="s">
+        <v>584</v>
+      </c>
+      <c r="F961" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G961">
+        <v>8591</v>
+      </c>
+      <c r="H961">
+        <v>1.36</v>
+      </c>
+      <c r="I961" s="5">
+        <f t="shared" si="36"/>
+        <v>6316.911764705882</v>
+      </c>
+      <c r="J961" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L961" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="962" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A962">
+        <v>104541760</v>
+      </c>
+      <c r="B962" t="s">
+        <v>100</v>
+      </c>
+      <c r="C962" s="1"/>
+      <c r="E962" t="s">
+        <v>584</v>
+      </c>
+      <c r="F962" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G962">
+        <v>8591</v>
+      </c>
+      <c r="H962">
+        <v>1.36</v>
+      </c>
+      <c r="I962" s="5">
+        <f t="shared" si="36"/>
+        <v>6316.911764705882</v>
+      </c>
+      <c r="J962" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L962" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="963" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A963">
+        <v>104500860</v>
+      </c>
+      <c r="B963" t="s">
+        <v>104</v>
+      </c>
+      <c r="C963" s="1"/>
+      <c r="E963" t="s">
+        <v>584</v>
+      </c>
+      <c r="F963" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G963">
+        <v>8900</v>
+      </c>
+      <c r="H963">
+        <v>5</v>
+      </c>
+      <c r="I963" s="5">
+        <f t="shared" si="36"/>
+        <v>1780</v>
+      </c>
+      <c r="J963" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L963" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="964" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A964">
+        <v>150001987</v>
+      </c>
+      <c r="B964" t="s">
+        <v>105</v>
+      </c>
+      <c r="C964" s="1"/>
+      <c r="E964" t="s">
+        <v>584</v>
+      </c>
+      <c r="F964" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G964">
+        <v>3090</v>
+      </c>
+      <c r="H964">
+        <f>_xlfn.XLOOKUP(A964,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
+        <v>1</v>
+      </c>
+      <c r="I964" s="5">
+        <f t="shared" si="36"/>
+        <v>3090</v>
+      </c>
+      <c r="J964" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L964" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="965" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A965">
+        <v>150001986</v>
+      </c>
+      <c r="B965" t="s">
+        <v>106</v>
+      </c>
+      <c r="C965" s="1"/>
+      <c r="E965" t="s">
+        <v>584</v>
+      </c>
+      <c r="F965" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G965">
+        <v>2990</v>
+      </c>
+      <c r="H965">
+        <f>_xlfn.XLOOKUP(A965,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
+        <v>1</v>
+      </c>
+      <c r="I965" s="5">
+        <f t="shared" si="36"/>
+        <v>2990</v>
+      </c>
+      <c r="J965" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L965" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="966" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A966">
+        <v>104500730</v>
+      </c>
+      <c r="B966" t="s">
+        <v>107</v>
+      </c>
+      <c r="C966" s="1"/>
+      <c r="E966" t="s">
+        <v>584</v>
+      </c>
+      <c r="F966" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G966">
+        <v>10190</v>
+      </c>
+      <c r="H966">
+        <f>_xlfn.XLOOKUP(A966,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
+        <v>1</v>
+      </c>
+      <c r="I966" s="5">
+        <f t="shared" si="36"/>
+        <v>10190</v>
+      </c>
+      <c r="J966" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L966" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="967" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A967">
+        <v>104500760</v>
+      </c>
+      <c r="B967" t="s">
+        <v>108</v>
+      </c>
+      <c r="C967" s="1"/>
+      <c r="E967" t="s">
+        <v>584</v>
+      </c>
+      <c r="F967" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G967">
+        <v>12090</v>
+      </c>
+      <c r="H967">
+        <f>_xlfn.XLOOKUP(A967,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
+        <v>1</v>
+      </c>
+      <c r="I967" s="5">
+        <f t="shared" si="36"/>
+        <v>12090</v>
+      </c>
+      <c r="J967" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L967" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="968" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A968">
+        <v>104500560</v>
+      </c>
+      <c r="B968" t="s">
+        <v>109</v>
+      </c>
+      <c r="C968" s="1"/>
+      <c r="E968" t="s">
+        <v>584</v>
+      </c>
+      <c r="F968" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G968">
+        <v>8590</v>
+      </c>
+      <c r="H968">
+        <f>_xlfn.XLOOKUP(A968,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
+        <v>1</v>
+      </c>
+      <c r="I968" s="5">
+        <f t="shared" si="36"/>
+        <v>8590</v>
+      </c>
+      <c r="J968" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L968" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="969" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A969">
+        <v>105045100</v>
+      </c>
+      <c r="B969" t="s">
+        <v>116</v>
+      </c>
+      <c r="C969" s="1"/>
+      <c r="E969" t="s">
+        <v>584</v>
+      </c>
+      <c r="F969" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G969">
+        <v>14059</v>
+      </c>
+      <c r="H969">
+        <v>3</v>
+      </c>
+      <c r="I969" s="5">
+        <f t="shared" si="36"/>
+        <v>4686.333333333333</v>
+      </c>
+      <c r="J969" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L969" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="970" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A970">
+        <v>104520680</v>
+      </c>
+      <c r="B970" t="s">
+        <v>117</v>
+      </c>
+      <c r="C970" s="1"/>
+      <c r="E970" t="s">
+        <v>584</v>
+      </c>
+      <c r="F970" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G970">
+        <v>10212</v>
+      </c>
+      <c r="H970">
+        <v>3</v>
+      </c>
+      <c r="I970" s="5">
+        <f t="shared" si="36"/>
+        <v>3404</v>
+      </c>
+      <c r="J970" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L970" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="971" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A971">
+        <v>104538110</v>
+      </c>
+      <c r="B971" t="s">
+        <v>119</v>
+      </c>
+      <c r="C971" s="1"/>
+      <c r="E971" t="s">
+        <v>584</v>
+      </c>
+      <c r="F971" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G971">
+        <v>1535</v>
+      </c>
+      <c r="H971">
+        <v>0.93</v>
+      </c>
+      <c r="I971" s="5">
+        <f t="shared" si="36"/>
+        <v>1650.5376344086021</v>
+      </c>
+      <c r="J971" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L971" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="972" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A972">
+        <v>201200013</v>
+      </c>
+      <c r="B972" t="s">
+        <v>120</v>
+      </c>
+      <c r="C972" s="1"/>
+      <c r="E972" t="s">
+        <v>584</v>
+      </c>
+      <c r="F972" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G972">
+        <v>1535</v>
+      </c>
+      <c r="H972">
+        <v>0.93</v>
+      </c>
+      <c r="I972" s="5">
+        <f t="shared" si="36"/>
+        <v>1650.5376344086021</v>
+      </c>
+      <c r="J972" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L972" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="973" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A973">
+        <v>104528900</v>
+      </c>
+      <c r="B973" t="s">
+        <v>121</v>
+      </c>
+      <c r="E973" t="s">
+        <v>584</v>
+      </c>
+      <c r="F973" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G973">
+        <v>3090</v>
+      </c>
+      <c r="H973">
+        <v>1</v>
+      </c>
+      <c r="I973" s="5">
+        <f t="shared" si="36"/>
+        <v>3090</v>
+      </c>
+      <c r="J973" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L973" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="974" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A974">
+        <v>104530290</v>
+      </c>
+      <c r="B974" t="s">
+        <v>122</v>
+      </c>
+      <c r="E974" t="s">
+        <v>584</v>
+      </c>
+      <c r="F974" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G974">
+        <v>16114</v>
+      </c>
+      <c r="H974">
+        <v>3.78</v>
+      </c>
+      <c r="I974" s="5">
+        <f t="shared" si="36"/>
+        <v>4262.9629629629635</v>
+      </c>
+      <c r="J974" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L974" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="975" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A975">
+        <v>150000140</v>
+      </c>
+      <c r="B975" t="s">
+        <v>123</v>
+      </c>
+      <c r="E975" t="s">
+        <v>584</v>
+      </c>
+      <c r="F975" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="G975">
+        <v>5373</v>
+      </c>
+      <c r="H975">
+        <v>1.94</v>
+      </c>
+      <c r="I975" s="5">
+        <f t="shared" si="36"/>
+        <v>2769.5876288659792</v>
+      </c>
+      <c r="J975" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L975" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="976" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A976">
+        <v>150001952</v>
+      </c>
+      <c r="B976" t="s">
+        <v>125</v>
+      </c>
+      <c r="E976" t="s">
+        <v>584</v>
+      </c>
+      <c r="F976" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G976">
+        <v>7390</v>
+      </c>
+      <c r="H976">
+        <v>1</v>
+      </c>
+      <c r="I976" s="5">
+        <f t="shared" si="36"/>
+        <v>7390</v>
+      </c>
+      <c r="J976" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L976" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="977" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A977">
+        <v>104515580</v>
+      </c>
+      <c r="B977" t="s">
+        <v>127</v>
+      </c>
+      <c r="E977" t="s">
+        <v>584</v>
+      </c>
+      <c r="F977" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G977">
+        <v>55919</v>
+      </c>
+      <c r="H977">
+        <f>60*0.08</f>
+        <v>4.8</v>
+      </c>
+      <c r="I977" s="5">
+        <f t="shared" si="36"/>
+        <v>11649.791666666668</v>
+      </c>
+      <c r="J977" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L977" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="978" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A978">
+        <v>104528980</v>
+      </c>
+      <c r="B978" t="s">
+        <v>129</v>
+      </c>
+      <c r="E978" t="s">
+        <v>584</v>
+      </c>
+      <c r="F978" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G978">
+        <v>27057</v>
+      </c>
+      <c r="H978">
+        <f>180*0.045</f>
+        <v>8.1</v>
+      </c>
+      <c r="I978" s="5">
+        <f t="shared" si="36"/>
+        <v>3340.3703703703704</v>
+      </c>
+      <c r="J978" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L978" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="979" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A979">
+        <v>104528990</v>
+      </c>
+      <c r="B979" t="s">
+        <v>130</v>
+      </c>
+      <c r="E979" t="s">
+        <v>584</v>
+      </c>
+      <c r="F979" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G979">
+        <v>27057</v>
+      </c>
+      <c r="H979">
+        <f>180*0.045</f>
+        <v>8.1</v>
+      </c>
+      <c r="I979" s="5">
+        <f t="shared" si="36"/>
+        <v>3340.3703703703704</v>
+      </c>
+      <c r="J979" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L979" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="980" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A980">
+        <v>101520140</v>
+      </c>
+      <c r="B980" t="s">
+        <v>132</v>
+      </c>
+      <c r="E980" t="s">
+        <v>584</v>
+      </c>
+      <c r="F980" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G980">
+        <v>3761</v>
+      </c>
+      <c r="H980">
+        <f>0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="I980" s="5">
+        <f t="shared" si="36"/>
+        <v>4701.25</v>
+      </c>
+      <c r="J980" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L980" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="981" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A981">
+        <v>101500120</v>
+      </c>
+      <c r="B981" t="s">
+        <v>133</v>
+      </c>
+      <c r="E981" t="s">
+        <v>584</v>
+      </c>
+      <c r="F981" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G981">
+        <v>7429</v>
+      </c>
+      <c r="H981">
+        <v>2.84</v>
+      </c>
+      <c r="I981" s="5">
+        <f t="shared" si="36"/>
+        <v>2615.8450704225352</v>
+      </c>
+      <c r="J981" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L981" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="982" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A982">
+        <v>104542770</v>
+      </c>
+      <c r="B982" t="s">
+        <v>135</v>
+      </c>
+      <c r="E982" t="s">
+        <v>584</v>
+      </c>
+      <c r="F982" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G982">
+        <v>4672</v>
+      </c>
+      <c r="H982">
+        <v>1</v>
+      </c>
+      <c r="I982" s="5">
+        <f t="shared" si="36"/>
+        <v>4672</v>
+      </c>
+      <c r="J982" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L982" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="983" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A983">
+        <v>101520250</v>
+      </c>
+      <c r="B983" t="s">
+        <v>136</v>
+      </c>
+      <c r="E983" t="s">
+        <v>584</v>
+      </c>
+      <c r="F983" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G983">
+        <v>1975</v>
+      </c>
+      <c r="H983">
+        <v>0.8</v>
+      </c>
+      <c r="I983" s="5">
+        <f t="shared" si="36"/>
+        <v>2468.75</v>
+      </c>
+      <c r="J983" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L983" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="984" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A984">
+        <v>104534690</v>
+      </c>
+      <c r="B984" t="s">
+        <v>137</v>
+      </c>
+      <c r="E984" t="s">
+        <v>584</v>
+      </c>
+      <c r="F984" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G984">
+        <v>7429</v>
+      </c>
+      <c r="H984">
+        <v>2.84</v>
+      </c>
+      <c r="I984" s="5">
+        <f t="shared" si="36"/>
+        <v>2615.8450704225352</v>
+      </c>
+      <c r="J984" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L984" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="985" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A985">
+        <v>104519180</v>
+      </c>
+      <c r="B985" t="s">
+        <v>138</v>
+      </c>
+      <c r="E985" t="s">
+        <v>584</v>
+      </c>
+      <c r="F985" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G985">
+        <v>32850</v>
+      </c>
+      <c r="H985">
+        <f>_xlfn.XLOOKUP(A985,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
+        <v>15</v>
+      </c>
+      <c r="I985" s="5">
+        <f t="shared" si="36"/>
+        <v>2190</v>
+      </c>
+      <c r="J985" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L985" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="986" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A986">
+        <v>104522620</v>
+      </c>
+      <c r="B986" t="s">
+        <v>139</v>
+      </c>
+      <c r="E986" t="s">
+        <v>584</v>
+      </c>
+      <c r="F986" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G986">
+        <v>30350</v>
+      </c>
+      <c r="H986">
+        <f>_xlfn.XLOOKUP(A986,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
+        <v>15</v>
+      </c>
+      <c r="I986" s="5">
+        <f t="shared" si="36"/>
+        <v>2023.3333333333333</v>
+      </c>
+      <c r="J986" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L986" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="987" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A987">
+        <v>104521720</v>
+      </c>
+      <c r="B987" t="s">
+        <v>140</v>
+      </c>
+      <c r="E987" t="s">
+        <v>584</v>
+      </c>
+      <c r="F987" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="G987">
+        <v>48308</v>
+      </c>
+      <c r="H987">
+        <f>140*0.1</f>
+        <v>14</v>
+      </c>
+      <c r="I987" s="5">
+        <f t="shared" si="36"/>
+        <v>3450.5714285714284</v>
+      </c>
+      <c r="J987" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L987" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="988" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A988">
+        <v>104531370</v>
+      </c>
+      <c r="B988" t="s">
+        <v>144</v>
+      </c>
+      <c r="E988" t="s">
+        <v>584</v>
+      </c>
+      <c r="F988" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G988">
+        <v>1165</v>
+      </c>
+      <c r="H988">
+        <v>0.105</v>
+      </c>
+      <c r="I988" s="5">
+        <f t="shared" si="36"/>
+        <v>11095.238095238095</v>
+      </c>
+      <c r="J988" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L988" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="989" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A989">
+        <v>104519090</v>
+      </c>
+      <c r="B989" t="s">
+        <v>146</v>
+      </c>
+      <c r="E989" t="s">
+        <v>584</v>
+      </c>
+      <c r="F989" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G989">
+        <v>11921</v>
+      </c>
+      <c r="H989">
+        <v>1</v>
+      </c>
+      <c r="I989" s="5">
+        <f t="shared" si="36"/>
+        <v>11921</v>
+      </c>
+      <c r="J989" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L989" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="990" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A990">
+        <v>104529560</v>
+      </c>
+      <c r="B990" t="s">
+        <v>147</v>
+      </c>
+      <c r="E990" t="s">
+        <v>584</v>
+      </c>
+      <c r="F990" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G990">
+        <v>3921</v>
+      </c>
+      <c r="H990">
+        <v>0.2</v>
+      </c>
+      <c r="I990" s="5">
+        <f t="shared" si="36"/>
+        <v>19605</v>
+      </c>
+      <c r="J990" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L990" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="991" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A991">
+        <v>104516010</v>
+      </c>
+      <c r="B991" t="s">
+        <v>150</v>
+      </c>
+      <c r="E991" t="s">
+        <v>584</v>
+      </c>
+      <c r="F991" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G991">
+        <v>5321</v>
+      </c>
+      <c r="H991">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="I991" s="5">
+        <f t="shared" si="36"/>
+        <v>5690.909090909091</v>
+      </c>
+      <c r="J991" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L991" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="992" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A992">
+        <v>105045700</v>
+      </c>
+      <c r="B992" t="s">
+        <v>153</v>
+      </c>
+      <c r="E992" t="s">
+        <v>584</v>
+      </c>
+      <c r="F992" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G992">
+        <v>5573</v>
+      </c>
+      <c r="H992">
+        <v>1</v>
+      </c>
+      <c r="I992" s="5">
+        <f t="shared" si="36"/>
+        <v>5573</v>
+      </c>
+      <c r="J992" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L992" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="993" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A993">
+        <v>104521670</v>
+      </c>
+      <c r="B993" t="s">
+        <v>154</v>
+      </c>
+      <c r="E993" t="s">
+        <v>584</v>
+      </c>
+      <c r="F993" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G993">
+        <v>51129</v>
+      </c>
+      <c r="H993">
+        <f>_xlfn.XLOOKUP(A993,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
+        <v>5</v>
+      </c>
+      <c r="I993" s="5">
+        <f t="shared" si="36"/>
+        <v>10225.799999999999</v>
+      </c>
+      <c r="J993" s="3">
+        <v>45960</v>
+      </c>
+      <c r="L993" t="s">
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -51816,6 +53626,7 @@
     <hyperlink ref="F750" r:id="rId28" xr:uid="{16346C42-021B-45FA-85D6-AD169A04B8D1}"/>
     <hyperlink ref="F854" r:id="rId29" xr:uid="{8A2D51DB-1012-45C9-8F77-6D8F57DB8B97}"/>
     <hyperlink ref="F861" r:id="rId30" xr:uid="{3FDCE067-1172-4003-9A7F-153BE51D0433}"/>
+    <hyperlink ref="F993" r:id="rId31" location="/products/detail/200300002" xr:uid="{D6E1DB14-B0CA-462C-A8EF-80CACE2FEACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icbfsfood-my.sharepoint.com/personal/scatalanv_icbfs_cl/Documents/posicionamiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5505" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4971D9F-4192-478A-B4CC-3C550279369D}"/>
+  <xr:revisionPtr revIDLastSave="5512" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{855215FB-EC27-4AC4-8526-1F80D0D78053}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="5" r:id="rId1"/>
@@ -22874,6 +22874,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23142,8 +23146,8 @@
   <dimension ref="A1:L1108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B316" sqref="B316"/>
+      <pane ySplit="1" topLeftCell="A1105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1107" sqref="F1107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52507,7 +52511,7 @@
         <v>2.4119999999999999</v>
       </c>
       <c r="I950" s="5">
-        <f t="shared" ref="I950:I1013" si="36">G950/H950</f>
+        <f t="shared" ref="I950:I1012" si="36">G950/H950</f>
         <v>9343.2835820895525</v>
       </c>
       <c r="J950" s="3">
@@ -53817,7 +53821,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="993" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A993">
         <v>104534300</v>
       </c>
@@ -53825,7 +53829,7 @@
         <v>155</v>
       </c>
       <c r="E993" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F993" s="1" t="s">
         <v>1112</v>
@@ -53847,7 +53851,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="994" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A994">
         <v>104518920</v>
       </c>
@@ -53855,7 +53859,7 @@
         <v>157</v>
       </c>
       <c r="E994" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F994" s="1" t="s">
         <v>1113</v>
@@ -53871,13 +53875,13 @@
         <v>4189</v>
       </c>
       <c r="J994" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L994" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="995" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="995" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A995">
         <v>104518880</v>
       </c>
@@ -53885,7 +53889,7 @@
         <v>158</v>
       </c>
       <c r="E995" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F995" s="1" t="s">
         <v>1114</v>
@@ -53901,10 +53905,10 @@
         <v>2542</v>
       </c>
       <c r="J995" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L995" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="996" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -53915,7 +53919,7 @@
         <v>159</v>
       </c>
       <c r="E996" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F996" s="1" t="s">
         <v>1113</v>
@@ -53931,13 +53935,13 @@
         <v>4189</v>
       </c>
       <c r="J996" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L996" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="997" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="997" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A997">
         <v>104518870</v>
       </c>
@@ -53945,7 +53949,7 @@
         <v>160</v>
       </c>
       <c r="E997" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F997" s="1" t="s">
         <v>1115</v>
@@ -53961,10 +53965,10 @@
         <v>5819.9</v>
       </c>
       <c r="J997" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L997" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="998" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -53975,7 +53979,7 @@
         <v>157</v>
       </c>
       <c r="E998" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F998" s="1" t="s">
         <v>1113</v>
@@ -53991,13 +53995,13 @@
         <v>4189</v>
       </c>
       <c r="J998" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L998" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="999" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="999" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A999">
         <v>104521770</v>
       </c>
@@ -54005,7 +54009,7 @@
         <v>161</v>
       </c>
       <c r="E999" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F999" s="1" t="s">
         <v>1116</v>
@@ -54021,13 +54025,13 @@
         <v>1926</v>
       </c>
       <c r="J999" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L999" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1000">
         <v>104515110</v>
       </c>
@@ -54035,7 +54039,7 @@
         <v>162</v>
       </c>
       <c r="E1000" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1000" s="1" t="s">
         <v>1117</v>
@@ -54051,13 +54055,13 @@
         <v>1850</v>
       </c>
       <c r="J1000" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1000" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1001">
         <v>104301050</v>
       </c>
@@ -54065,7 +54069,7 @@
         <v>163</v>
       </c>
       <c r="E1001" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1001" s="1" t="s">
         <v>1118</v>
@@ -54081,13 +54085,13 @@
         <v>1772</v>
       </c>
       <c r="J1001" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1001" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1002">
         <v>104519650</v>
       </c>
@@ -54095,7 +54099,7 @@
         <v>165</v>
       </c>
       <c r="E1002" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1002" s="1" t="s">
         <v>1119</v>
@@ -54111,13 +54115,13 @@
         <v>2354</v>
       </c>
       <c r="J1002" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1002" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1003">
         <v>104520710</v>
       </c>
@@ -54125,7 +54129,7 @@
         <v>166</v>
       </c>
       <c r="E1003" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1003" s="1" t="s">
         <v>1120</v>
@@ -54141,13 +54145,13 @@
         <v>2232</v>
       </c>
       <c r="J1003" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1003" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1004">
         <v>104519700</v>
       </c>
@@ -54155,7 +54159,7 @@
         <v>167</v>
       </c>
       <c r="E1004" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1004" s="1" t="s">
         <v>1121</v>
@@ -54171,13 +54175,13 @@
         <v>2273</v>
       </c>
       <c r="J1004" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1004" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1005">
         <v>104300500</v>
       </c>
@@ -54185,7 +54189,7 @@
         <v>168</v>
       </c>
       <c r="E1005" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1005" s="1" t="s">
         <v>1122</v>
@@ -54201,13 +54205,13 @@
         <v>1918</v>
       </c>
       <c r="J1005" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1005" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1006">
         <v>104520700</v>
       </c>
@@ -54215,7 +54219,7 @@
         <v>170</v>
       </c>
       <c r="E1006" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1006" s="1" t="s">
         <v>1117</v>
@@ -54231,13 +54235,13 @@
         <v>1850</v>
       </c>
       <c r="J1006" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1006" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1007">
         <v>104519860</v>
       </c>
@@ -54245,7 +54249,7 @@
         <v>172</v>
       </c>
       <c r="E1007" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1007" s="1" t="s">
         <v>1123</v>
@@ -54261,13 +54265,13 @@
         <v>25344</v>
       </c>
       <c r="J1007" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1007" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1008">
         <v>104544900</v>
       </c>
@@ -54275,7 +54279,7 @@
         <v>174</v>
       </c>
       <c r="E1008" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1008" s="1" t="s">
         <v>1124</v>
@@ -54292,13 +54296,13 @@
         <v>13810</v>
       </c>
       <c r="J1008" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1008" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1009">
         <v>104512950</v>
       </c>
@@ -54306,7 +54310,7 @@
         <v>177</v>
       </c>
       <c r="E1009" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1009" s="1" t="s">
         <v>1125</v>
@@ -54322,13 +54326,13 @@
         <v>5141.625</v>
       </c>
       <c r="J1009" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1009" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1010">
         <v>201222940</v>
       </c>
@@ -54336,7 +54340,7 @@
         <v>178</v>
       </c>
       <c r="E1010" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1010" s="1" t="s">
         <v>1126</v>
@@ -54353,10 +54357,10 @@
         <v>4480.2777777777774</v>
       </c>
       <c r="J1010" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1010" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1011" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -54367,7 +54371,7 @@
         <v>179</v>
       </c>
       <c r="E1011" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1011" s="1" t="s">
         <v>1126</v>
@@ -54384,13 +54388,13 @@
         <v>4480.2777777777774</v>
       </c>
       <c r="J1011" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1011" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1012">
         <v>104544090</v>
       </c>
@@ -54398,7 +54402,7 @@
         <v>180</v>
       </c>
       <c r="E1012" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1012" s="1" t="s">
         <v>929</v>
@@ -54414,13 +54418,13 @@
         <v>4250</v>
       </c>
       <c r="J1012" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1012" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1013">
         <v>104520620</v>
       </c>
@@ -54428,7 +54432,7 @@
         <v>13</v>
       </c>
       <c r="E1013" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1013" s="1" t="s">
         <v>1127</v>
@@ -54444,13 +54448,13 @@
         <v>1213</v>
       </c>
       <c r="J1013" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1013" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1014">
         <v>104519920</v>
       </c>
@@ -54458,7 +54462,7 @@
         <v>5</v>
       </c>
       <c r="E1014" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1014" s="1" t="s">
         <v>931</v>
@@ -54470,17 +54474,17 @@
         <v>1</v>
       </c>
       <c r="I1014" s="5">
-        <f t="shared" ref="I1014:I1020" si="37">G1014/H1014</f>
+        <f t="shared" ref="I1014:I1019" si="37">G1014/H1014</f>
         <v>1845</v>
       </c>
       <c r="J1014" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1014" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1015">
         <v>150001807</v>
       </c>
@@ -54488,7 +54492,7 @@
         <v>6</v>
       </c>
       <c r="E1015" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1015" s="1" t="s">
         <v>1128</v>
@@ -54504,13 +54508,13 @@
         <v>1835</v>
       </c>
       <c r="J1015" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1015" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1016">
         <v>104527320</v>
       </c>
@@ -54518,7 +54522,7 @@
         <v>11</v>
       </c>
       <c r="E1016" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1016" s="1" t="s">
         <v>1129</v>
@@ -54534,13 +54538,13 @@
         <v>845</v>
       </c>
       <c r="J1016" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1016" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1017">
         <v>104526560</v>
       </c>
@@ -54548,7 +54552,7 @@
         <v>15</v>
       </c>
       <c r="E1017" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1017" s="1" t="s">
         <v>1130</v>
@@ -54564,13 +54568,13 @@
         <v>1749</v>
       </c>
       <c r="J1017" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1017" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1018">
         <v>104545080</v>
       </c>
@@ -54578,7 +54582,7 @@
         <v>187</v>
       </c>
       <c r="E1018" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1018" s="1" t="s">
         <v>1131</v>
@@ -54594,13 +54598,13 @@
         <v>3657.5</v>
       </c>
       <c r="J1018" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1018" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1019">
         <v>104533730</v>
       </c>
@@ -54608,7 +54612,7 @@
         <v>190</v>
       </c>
       <c r="E1019" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1019" s="1" t="s">
         <v>1132</v>
@@ -54624,13 +54628,13 @@
         <v>4029</v>
       </c>
       <c r="J1019" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1019" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1020">
         <v>104521430</v>
       </c>
@@ -54638,7 +54642,7 @@
         <v>194</v>
       </c>
       <c r="E1020" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1020" s="1" t="s">
         <v>1133</v>
@@ -54655,13 +54659,13 @@
         <v>4490</v>
       </c>
       <c r="J1020" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1020" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1021">
         <v>104519290</v>
       </c>
@@ -54669,7 +54673,7 @@
         <v>195</v>
       </c>
       <c r="E1021" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1021" s="1" t="s">
         <v>1134</v>
@@ -54686,13 +54690,13 @@
         <v>10063</v>
       </c>
       <c r="J1021" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1021" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1022">
         <v>104340050</v>
       </c>
@@ -54700,7 +54704,7 @@
         <v>196</v>
       </c>
       <c r="E1022" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1022" s="1" t="s">
         <v>1135</v>
@@ -54716,13 +54720,13 @@
         <v>8944</v>
       </c>
       <c r="J1022" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1022" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1023">
         <v>104340780</v>
       </c>
@@ -54730,7 +54734,7 @@
         <v>197</v>
       </c>
       <c r="E1023" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1023" s="1" t="s">
         <v>1136</v>
@@ -54746,13 +54750,13 @@
         <v>7488</v>
       </c>
       <c r="J1023" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1023" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1024">
         <v>104539340</v>
       </c>
@@ -54760,7 +54764,7 @@
         <v>199</v>
       </c>
       <c r="E1024" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1024" s="1" t="s">
         <v>1137</v>
@@ -54776,13 +54780,13 @@
         <v>4819</v>
       </c>
       <c r="J1024" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1024" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1025">
         <v>104544680</v>
       </c>
@@ -54790,7 +54794,7 @@
         <v>200</v>
       </c>
       <c r="E1025" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1025" s="1" t="s">
         <v>1138</v>
@@ -54806,13 +54810,13 @@
         <v>4724</v>
       </c>
       <c r="J1025" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1025" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1026">
         <v>104540280</v>
       </c>
@@ -54820,7 +54824,7 @@
         <v>203</v>
       </c>
       <c r="E1026" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1026" s="1" t="s">
         <v>1139</v>
@@ -54836,13 +54840,13 @@
         <v>4513.8888888888887</v>
       </c>
       <c r="J1026" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1026" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1027">
         <v>104540190</v>
       </c>
@@ -54850,7 +54854,7 @@
         <v>204</v>
       </c>
       <c r="E1027" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1027" s="1" t="s">
         <v>1140</v>
@@ -54866,10 +54870,10 @@
         <v>2180</v>
       </c>
       <c r="J1027" s="3">
-        <v>45947</v>
+        <v>45964</v>
       </c>
       <c r="L1027" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1028" spans="1:12" x14ac:dyDescent="0.35">
@@ -54880,7 +54884,7 @@
         <v>205</v>
       </c>
       <c r="E1028" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="F1028" t="s">
         <v>1141</v>
@@ -54896,10 +54900,10 @@
         <v>1680.3361344537816</v>
       </c>
       <c r="L1028" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1029">
         <v>104540290</v>
       </c>
@@ -54907,7 +54911,7 @@
         <v>206</v>
       </c>
       <c r="E1029" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1029" s="1" t="s">
         <v>1142</v>
@@ -54926,10 +54930,10 @@
         <v>45947</v>
       </c>
       <c r="L1029" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1030">
         <v>104540180</v>
       </c>
@@ -54937,7 +54941,7 @@
         <v>207</v>
       </c>
       <c r="E1030" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1030" s="1" t="s">
         <v>1143</v>
@@ -54956,10 +54960,10 @@
         <v>45947</v>
       </c>
       <c r="L1030" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1031">
         <v>104540200</v>
       </c>
@@ -54967,7 +54971,7 @@
         <v>208</v>
       </c>
       <c r="E1031" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1031" s="1" t="s">
         <v>1144</v>
@@ -54986,10 +54990,10 @@
         <v>45947</v>
       </c>
       <c r="L1031" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1032">
         <v>104540250</v>
       </c>
@@ -54997,7 +55001,7 @@
         <v>210</v>
       </c>
       <c r="E1032" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1032" s="1" t="s">
         <v>1145</v>
@@ -55016,7 +55020,7 @@
         <v>45947</v>
       </c>
       <c r="L1032" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1033" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -55027,7 +55031,7 @@
         <v>55</v>
       </c>
       <c r="E1033" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1033" s="8" t="s">
         <v>1140</v>
@@ -55046,10 +55050,10 @@
         <v>45947</v>
       </c>
       <c r="L1033" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1034">
         <v>102500042</v>
       </c>
@@ -55057,7 +55061,7 @@
         <v>38</v>
       </c>
       <c r="E1034" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1034" s="1" t="s">
         <v>1146</v>
@@ -55076,10 +55080,10 @@
         <v>45947</v>
       </c>
       <c r="L1034" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1035">
         <v>104534820</v>
       </c>
@@ -55087,7 +55091,7 @@
         <v>211</v>
       </c>
       <c r="E1035" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1035" s="1" t="s">
         <v>1147</v>
@@ -55106,10 +55110,10 @@
         <v>45947</v>
       </c>
       <c r="L1035" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1036">
         <v>201200012</v>
       </c>
@@ -55117,7 +55121,7 @@
         <v>212</v>
       </c>
       <c r="E1036" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1036" s="1" t="s">
         <v>1148</v>
@@ -55136,10 +55140,10 @@
         <v>45947</v>
       </c>
       <c r="L1036" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1037">
         <v>104515840</v>
       </c>
@@ -55147,7 +55151,7 @@
         <v>213</v>
       </c>
       <c r="E1037" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1037" s="1" t="s">
         <v>1149</v>
@@ -55166,10 +55170,10 @@
         <v>45947</v>
       </c>
       <c r="L1037" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1038">
         <v>104512990</v>
       </c>
@@ -55177,7 +55181,7 @@
         <v>215</v>
       </c>
       <c r="E1038" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1038" s="1" t="s">
         <v>1150</v>
@@ -55196,10 +55200,10 @@
         <v>45947</v>
       </c>
       <c r="L1038" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1039">
         <v>104545250</v>
       </c>
@@ -55207,7 +55211,7 @@
         <v>216</v>
       </c>
       <c r="E1039" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1039" s="1" t="s">
         <v>1151</v>
@@ -55226,10 +55230,10 @@
         <v>45947</v>
       </c>
       <c r="L1039" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1040">
         <v>104539350</v>
       </c>
@@ -55237,7 +55241,7 @@
         <v>217</v>
       </c>
       <c r="E1040" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1040" s="1" t="s">
         <v>1152</v>
@@ -55256,7 +55260,7 @@
         <v>45947</v>
       </c>
       <c r="L1040" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1041" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -55267,7 +55271,7 @@
         <v>218</v>
       </c>
       <c r="E1041" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1041" s="1" t="s">
         <v>1151</v>
@@ -55286,10 +55290,10 @@
         <v>45947</v>
       </c>
       <c r="L1041" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1042">
         <v>150000892</v>
       </c>
@@ -55297,7 +55301,7 @@
         <v>221</v>
       </c>
       <c r="E1042" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1042" s="1" t="s">
         <v>1153</v>
@@ -55316,10 +55320,10 @@
         <v>45947</v>
       </c>
       <c r="L1042" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1043">
         <v>104528800</v>
       </c>
@@ -55327,7 +55331,7 @@
         <v>222</v>
       </c>
       <c r="E1043" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1043" s="1" t="s">
         <v>1154</v>
@@ -55346,10 +55350,10 @@
         <v>45947</v>
       </c>
       <c r="L1043" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1044">
         <v>150000429</v>
       </c>
@@ -55357,7 +55361,7 @@
         <v>224</v>
       </c>
       <c r="E1044" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1044" s="1" t="s">
         <v>1151</v>
@@ -55376,7 +55380,7 @@
         <v>45947</v>
       </c>
       <c r="L1044" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1045" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -55387,7 +55391,7 @@
         <v>225</v>
       </c>
       <c r="E1045" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1045" s="1" t="s">
         <v>1153</v>
@@ -55406,10 +55410,10 @@
         <v>45947</v>
       </c>
       <c r="L1045" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1046">
         <v>104518970</v>
       </c>
@@ -55417,7 +55421,7 @@
         <v>227</v>
       </c>
       <c r="E1046" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1046" s="1" t="s">
         <v>1155</v>
@@ -55436,10 +55440,10 @@
         <v>45947</v>
       </c>
       <c r="L1046" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1047">
         <v>104518910</v>
       </c>
@@ -55447,7 +55451,7 @@
         <v>228</v>
       </c>
       <c r="E1047" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1047" s="1" t="s">
         <v>1156</v>
@@ -55466,10 +55470,10 @@
         <v>45947</v>
       </c>
       <c r="L1047" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1048">
         <v>104519510</v>
       </c>
@@ -55477,7 +55481,7 @@
         <v>229</v>
       </c>
       <c r="E1048" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1048" s="1" t="s">
         <v>1157</v>
@@ -55496,10 +55500,10 @@
         <v>45947</v>
       </c>
       <c r="L1048" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1049">
         <v>104544640</v>
       </c>
@@ -55507,7 +55511,7 @@
         <v>230</v>
       </c>
       <c r="E1049" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1049" s="1" t="s">
         <v>1158</v>
@@ -55526,10 +55530,10 @@
         <v>45947</v>
       </c>
       <c r="L1049" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1050">
         <v>104524690</v>
       </c>
@@ -55537,7 +55541,7 @@
         <v>231</v>
       </c>
       <c r="E1050" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1050" s="1" t="s">
         <v>935</v>
@@ -55556,10 +55560,10 @@
         <v>45947</v>
       </c>
       <c r="L1050" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1051">
         <v>104351690</v>
       </c>
@@ -55567,7 +55571,7 @@
         <v>232</v>
       </c>
       <c r="E1051" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1051" s="1" t="s">
         <v>1159</v>
@@ -55587,10 +55591,10 @@
         <v>45947</v>
       </c>
       <c r="L1051" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1052">
         <v>104527830</v>
       </c>
@@ -55598,7 +55602,7 @@
         <v>233</v>
       </c>
       <c r="E1052" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1052" s="1" t="s">
         <v>1160</v>
@@ -55617,10 +55621,10 @@
         <v>45947</v>
       </c>
       <c r="L1052" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1053">
         <v>104545370</v>
       </c>
@@ -55628,7 +55632,7 @@
         <v>238</v>
       </c>
       <c r="E1053" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1053" s="1" t="s">
         <v>1161</v>
@@ -55647,7 +55651,7 @@
         <v>45947</v>
       </c>
       <c r="L1053" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1054" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -55658,7 +55662,7 @@
         <v>240</v>
       </c>
       <c r="E1054" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1054" s="1" t="s">
         <v>1161</v>
@@ -55677,7 +55681,7 @@
         <v>45947</v>
       </c>
       <c r="L1054" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1055" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -55688,7 +55692,7 @@
         <v>241</v>
       </c>
       <c r="E1055" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1055" s="8" t="s">
         <v>1162</v>
@@ -55708,7 +55712,7 @@
         <v>45947</v>
       </c>
       <c r="L1055" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1056" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -55719,7 +55723,7 @@
         <v>280</v>
       </c>
       <c r="E1056" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1056" s="8" t="s">
         <v>940</v>
@@ -55738,10 +55742,10 @@
         <v>45947</v>
       </c>
       <c r="L1056" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1057">
         <v>150000702</v>
       </c>
@@ -55749,7 +55753,7 @@
         <v>281</v>
       </c>
       <c r="E1057" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1057" s="1" t="s">
         <v>938</v>
@@ -55768,10 +55772,10 @@
         <v>45947</v>
       </c>
       <c r="L1057" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1058">
         <v>104523380</v>
       </c>
@@ -55779,7 +55783,7 @@
         <v>282</v>
       </c>
       <c r="E1058" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1058" s="1" t="s">
         <v>940</v>
@@ -55798,10 +55802,10 @@
         <v>45947</v>
       </c>
       <c r="L1058" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1059">
         <v>150000006</v>
       </c>
@@ -55809,7 +55813,7 @@
         <v>283</v>
       </c>
       <c r="E1059" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1059" s="1" t="s">
         <v>1163</v>
@@ -55828,10 +55832,10 @@
         <v>45947</v>
       </c>
       <c r="L1059" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1060">
         <v>104519800</v>
       </c>
@@ -55839,7 +55843,7 @@
         <v>284</v>
       </c>
       <c r="E1060" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1060" s="1" t="s">
         <v>941</v>
@@ -55858,10 +55862,10 @@
         <v>45947</v>
       </c>
       <c r="L1060" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1061">
         <v>104532830</v>
       </c>
@@ -55869,7 +55873,7 @@
         <v>285</v>
       </c>
       <c r="E1061" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1061" s="1" t="s">
         <v>943</v>
@@ -55888,10 +55892,10 @@
         <v>45947</v>
       </c>
       <c r="L1061" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1062">
         <v>104544760</v>
       </c>
@@ -55899,7 +55903,7 @@
         <v>286</v>
       </c>
       <c r="E1062" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1062" s="1" t="s">
         <v>1164</v>
@@ -55918,10 +55922,10 @@
         <v>45947</v>
       </c>
       <c r="L1062" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1063">
         <v>104525110</v>
       </c>
@@ -55929,7 +55933,7 @@
         <v>287</v>
       </c>
       <c r="E1063" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1063" s="1" t="s">
         <v>943</v>
@@ -55948,10 +55952,10 @@
         <v>45947</v>
       </c>
       <c r="L1063" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1064">
         <v>104521640</v>
       </c>
@@ -55959,7 +55963,7 @@
         <v>288</v>
       </c>
       <c r="E1064" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1064" s="1" t="s">
         <v>1165</v>
@@ -55979,10 +55983,10 @@
         <v>45947</v>
       </c>
       <c r="L1064" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1065">
         <v>104512230</v>
       </c>
@@ -55990,7 +55994,7 @@
         <v>289</v>
       </c>
       <c r="E1065" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1065" s="1" t="s">
         <v>1166</v>
@@ -56009,10 +56013,10 @@
         <v>45947</v>
       </c>
       <c r="L1065" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1066">
         <v>104517100</v>
       </c>
@@ -56020,7 +56024,7 @@
         <v>293</v>
       </c>
       <c r="E1066" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1066" s="1" t="s">
         <v>1167</v>
@@ -56039,7 +56043,7 @@
         <v>45947</v>
       </c>
       <c r="L1066" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1067" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -56050,7 +56054,7 @@
         <v>295</v>
       </c>
       <c r="E1067" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1067" s="8" t="s">
         <v>945</v>
@@ -56069,10 +56073,10 @@
         <v>45947</v>
       </c>
       <c r="L1067" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1068">
         <v>104528220</v>
       </c>
@@ -56080,7 +56084,7 @@
         <v>296</v>
       </c>
       <c r="E1068" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1068" s="1" t="s">
         <v>1168</v>
@@ -56100,10 +56104,10 @@
         <v>45947</v>
       </c>
       <c r="L1068" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1069">
         <v>104523040</v>
       </c>
@@ -56111,7 +56115,7 @@
         <v>297</v>
       </c>
       <c r="E1069" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1069" s="1" t="s">
         <v>1169</v>
@@ -56131,10 +56135,10 @@
         <v>45947</v>
       </c>
       <c r="L1069" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1070">
         <v>104523060</v>
       </c>
@@ -56142,7 +56146,7 @@
         <v>298</v>
       </c>
       <c r="E1070" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1070" s="1" t="s">
         <v>1170</v>
@@ -56162,10 +56166,10 @@
         <v>45947</v>
       </c>
       <c r="L1070" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1071">
         <v>104523050</v>
       </c>
@@ -56173,7 +56177,7 @@
         <v>299</v>
       </c>
       <c r="E1071" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1071" s="1" t="s">
         <v>1171</v>
@@ -56193,10 +56197,10 @@
         <v>45947</v>
       </c>
       <c r="L1071" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1072">
         <v>104537740</v>
       </c>
@@ -56204,7 +56208,7 @@
         <v>300</v>
       </c>
       <c r="E1072" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1072" s="1" t="s">
         <v>1172</v>
@@ -56224,10 +56228,10 @@
         <v>45947</v>
       </c>
       <c r="L1072" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1073">
         <v>104543750</v>
       </c>
@@ -56235,7 +56239,7 @@
         <v>302</v>
       </c>
       <c r="E1073" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1073" s="1" t="s">
         <v>947</v>
@@ -56255,10 +56259,10 @@
         <v>45947</v>
       </c>
       <c r="L1073" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1074">
         <v>104522080</v>
       </c>
@@ -56266,7 +56270,7 @@
         <v>303</v>
       </c>
       <c r="E1074" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1074" s="1" t="s">
         <v>1173</v>
@@ -56286,10 +56290,10 @@
         <v>45947</v>
       </c>
       <c r="L1074" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1075">
         <v>150001266</v>
       </c>
@@ -56297,7 +56301,7 @@
         <v>307</v>
       </c>
       <c r="E1075" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1075" s="1" t="s">
         <v>1174</v>
@@ -56316,10 +56320,10 @@
         <v>45947</v>
       </c>
       <c r="L1075" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1076">
         <v>104521140</v>
       </c>
@@ -56327,7 +56331,7 @@
         <v>308</v>
       </c>
       <c r="E1076" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1076" s="1" t="s">
         <v>951</v>
@@ -56347,10 +56351,10 @@
         <v>45947</v>
       </c>
       <c r="L1076" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1077">
         <v>104520070</v>
       </c>
@@ -56358,7 +56362,7 @@
         <v>310</v>
       </c>
       <c r="E1077" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1077" s="1" t="s">
         <v>1175</v>
@@ -56377,10 +56381,10 @@
         <v>45947</v>
       </c>
       <c r="L1077" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1078">
         <v>104544590</v>
       </c>
@@ -56388,7 +56392,7 @@
         <v>312</v>
       </c>
       <c r="E1078" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1078" s="1" t="s">
         <v>1176</v>
@@ -56407,10 +56411,10 @@
         <v>45947</v>
       </c>
       <c r="L1078" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1079">
         <v>104520060</v>
       </c>
@@ -56418,7 +56422,7 @@
         <v>313</v>
       </c>
       <c r="E1079" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1079" s="1" t="s">
         <v>1177</v>
@@ -56437,7 +56441,7 @@
         <v>45947</v>
       </c>
       <c r="L1079" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1080" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -56448,7 +56452,7 @@
         <v>314</v>
       </c>
       <c r="E1080" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1080" s="1" t="s">
         <v>1176</v>
@@ -56467,10 +56471,10 @@
         <v>45947</v>
       </c>
       <c r="L1080" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1081">
         <v>104541770</v>
       </c>
@@ -56478,7 +56482,7 @@
         <v>315</v>
       </c>
       <c r="E1081" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1081" s="1" t="s">
         <v>1178</v>
@@ -56497,10 +56501,10 @@
         <v>45947</v>
       </c>
       <c r="L1081" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1082">
         <v>104254040</v>
       </c>
@@ -56508,7 +56512,7 @@
         <v>317</v>
       </c>
       <c r="E1082" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1082" s="1" t="s">
         <v>1179</v>
@@ -56528,10 +56532,10 @@
         <v>45947</v>
       </c>
       <c r="L1082" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1083">
         <v>104520830</v>
       </c>
@@ -56539,7 +56543,7 @@
         <v>318</v>
       </c>
       <c r="E1083" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1083" s="1" t="s">
         <v>1180</v>
@@ -56559,10 +56563,10 @@
         <v>45947</v>
       </c>
       <c r="L1083" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1084">
         <v>104527650</v>
       </c>
@@ -56570,7 +56574,7 @@
         <v>319</v>
       </c>
       <c r="E1084" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1084" s="1" t="s">
         <v>1181</v>
@@ -56589,10 +56593,10 @@
         <v>45947</v>
       </c>
       <c r="L1084" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1085">
         <v>104527640</v>
       </c>
@@ -56600,7 +56604,7 @@
         <v>320</v>
       </c>
       <c r="E1085" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1085" s="1" t="s">
         <v>661</v>
@@ -56619,10 +56623,10 @@
         <v>45947</v>
       </c>
       <c r="L1085" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1086">
         <v>104527570</v>
       </c>
@@ -56630,7 +56634,7 @@
         <v>321</v>
       </c>
       <c r="E1086" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1086" s="1" t="s">
         <v>1182</v>
@@ -56649,10 +56653,10 @@
         <v>45947</v>
       </c>
       <c r="L1086" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1087">
         <v>150001223</v>
       </c>
@@ -56660,7 +56664,7 @@
         <v>322</v>
       </c>
       <c r="E1087" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1087" s="1" t="s">
         <v>1183</v>
@@ -56680,10 +56684,10 @@
         <v>45947</v>
       </c>
       <c r="L1087" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1088">
         <v>150001225</v>
       </c>
@@ -56691,7 +56695,7 @@
         <v>323</v>
       </c>
       <c r="E1088" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1088" s="1" t="s">
         <v>1184</v>
@@ -56710,10 +56714,10 @@
         <v>45947</v>
       </c>
       <c r="L1088" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1089">
         <v>150000003</v>
       </c>
@@ -56721,7 +56725,7 @@
         <v>324</v>
       </c>
       <c r="E1089" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1089" s="1" t="s">
         <v>1185</v>
@@ -56740,10 +56744,10 @@
         <v>45947</v>
       </c>
       <c r="L1089" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1090">
         <v>150000158</v>
       </c>
@@ -56751,7 +56755,7 @@
         <v>326</v>
       </c>
       <c r="E1090" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1090" s="1" t="s">
         <v>953</v>
@@ -56770,10 +56774,10 @@
         <v>45947</v>
       </c>
       <c r="L1090" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1091">
         <v>104547690</v>
       </c>
@@ -56781,7 +56785,7 @@
         <v>328</v>
       </c>
       <c r="E1091" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1091" s="1" t="s">
         <v>1186</v>
@@ -56800,10 +56804,10 @@
         <v>45947</v>
       </c>
       <c r="L1091" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1092">
         <v>104543010</v>
       </c>
@@ -56811,7 +56815,7 @@
         <v>330</v>
       </c>
       <c r="E1092" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1092" s="1" t="s">
         <v>1187</v>
@@ -56830,7 +56834,7 @@
         <v>45947</v>
       </c>
       <c r="L1092" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1093" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -56841,7 +56845,7 @@
         <v>331</v>
       </c>
       <c r="E1093" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1093" s="1" t="s">
         <v>1186</v>
@@ -56860,10 +56864,10 @@
         <v>45947</v>
       </c>
       <c r="L1093" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1094">
         <v>104501170</v>
       </c>
@@ -56871,7 +56875,7 @@
         <v>332</v>
       </c>
       <c r="E1094" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1094" s="1" t="s">
         <v>1188</v>
@@ -56891,7 +56895,7 @@
         <v>45947</v>
       </c>
       <c r="L1094" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1095" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -56902,7 +56906,7 @@
         <v>333</v>
       </c>
       <c r="E1095" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1095" s="1" t="s">
         <v>1188</v>
@@ -56922,10 +56926,10 @@
         <v>45947</v>
       </c>
       <c r="L1095" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1096">
         <v>104500810</v>
       </c>
@@ -56933,7 +56937,7 @@
         <v>334</v>
       </c>
       <c r="E1096" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1096" s="1" t="s">
         <v>1189</v>
@@ -56953,10 +56957,10 @@
         <v>45947</v>
       </c>
       <c r="L1096" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1097">
         <v>104522190</v>
       </c>
@@ -56964,7 +56968,7 @@
         <v>335</v>
       </c>
       <c r="E1097" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1097" s="1" t="s">
         <v>1190</v>
@@ -56984,10 +56988,10 @@
         <v>45947</v>
       </c>
       <c r="L1097" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1098">
         <v>104501190</v>
       </c>
@@ -56995,7 +56999,7 @@
         <v>336</v>
       </c>
       <c r="E1098" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1098" s="1" t="s">
         <v>1189</v>
@@ -57015,10 +57019,10 @@
         <v>45947</v>
       </c>
       <c r="L1098" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1099">
         <v>104501230</v>
       </c>
@@ -57026,7 +57030,7 @@
         <v>337</v>
       </c>
       <c r="E1099" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1099" s="1" t="s">
         <v>1188</v>
@@ -57046,7 +57050,7 @@
         <v>45947</v>
       </c>
       <c r="L1099" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1100" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -57057,7 +57061,7 @@
         <v>338</v>
       </c>
       <c r="E1100" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1100" s="1" t="s">
         <v>1189</v>
@@ -57077,10 +57081,10 @@
         <v>45947</v>
       </c>
       <c r="L1100" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1101">
         <v>104525770</v>
       </c>
@@ -57088,7 +57092,7 @@
         <v>339</v>
       </c>
       <c r="E1101" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1101" s="1" t="s">
         <v>1191</v>
@@ -57107,10 +57111,10 @@
         <v>45947</v>
       </c>
       <c r="L1101" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1102">
         <v>104512020</v>
       </c>
@@ -57118,7 +57122,7 @@
         <v>340</v>
       </c>
       <c r="E1102" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1102" s="1" t="s">
         <v>1192</v>
@@ -57137,10 +57141,10 @@
         <v>45947</v>
       </c>
       <c r="L1102" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1103">
         <v>104542610</v>
       </c>
@@ -57148,7 +57152,7 @@
         <v>341</v>
       </c>
       <c r="E1103" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1103" s="1" t="s">
         <v>1193</v>
@@ -57168,10 +57172,10 @@
         <v>45947</v>
       </c>
       <c r="L1103" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1104">
         <v>201200014</v>
       </c>
@@ -57179,7 +57183,7 @@
         <v>342</v>
       </c>
       <c r="E1104" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1104" s="1" t="s">
         <v>1194</v>
@@ -57198,10 +57202,10 @@
         <v>45947</v>
       </c>
       <c r="L1104" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1105">
         <v>104529150</v>
       </c>
@@ -57209,7 +57213,7 @@
         <v>343</v>
       </c>
       <c r="E1105" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1105" s="1" t="s">
         <v>1195</v>
@@ -57228,10 +57232,10 @@
         <v>45947</v>
       </c>
       <c r="L1105" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1106">
         <v>104539180</v>
       </c>
@@ -57239,7 +57243,7 @@
         <v>345</v>
       </c>
       <c r="E1106" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1106" s="1" t="s">
         <v>677</v>
@@ -57258,10 +57262,10 @@
         <v>45947</v>
       </c>
       <c r="L1106" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1107">
         <v>104529120</v>
       </c>
@@ -57269,7 +57273,7 @@
         <v>351</v>
       </c>
       <c r="E1107" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1107" s="1" t="s">
         <v>1196</v>
@@ -57288,7 +57292,7 @@
         <v>45947</v>
       </c>
       <c r="L1107" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1108" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -57299,7 +57303,7 @@
         <v>352</v>
       </c>
       <c r="E1108" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F1108" s="1" t="s">
         <v>1196</v>
@@ -57318,7 +57322,7 @@
         <v>45947</v>
       </c>
       <c r="L1108" t="s">
-        <v>980</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icbfsfood-my.sharepoint.com/personal/scatalanv_icbfs_cl/Documents/posicionamiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6066" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F1430C0-CBAF-43B8-A301-F6EDC13D8EDE}"/>
+  <xr:revisionPtr revIDLastSave="6088" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FE1C2A5-A6B9-4D19-9BFF-92AC8D5675ED}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="5" r:id="rId1"/>
@@ -23051,10 +23051,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23323,8 +23319,8 @@
   <dimension ref="A1:L1181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1171" sqref="H1171"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E527" sqref="E527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38687,7 +38683,7 @@
         <v>73</v>
       </c>
       <c r="E479" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="F479" t="s">
         <v>537</v>
@@ -38715,7 +38711,7 @@
         <v>74</v>
       </c>
       <c r="E480" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="F480" t="s">
         <v>537</v>
@@ -39787,7 +39783,7 @@
         <v>97</v>
       </c>
       <c r="E520" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="F520" t="s">
         <v>575</v>
@@ -39868,7 +39864,7 @@
         <v>100</v>
       </c>
       <c r="E523" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F523" t="s">
         <v>579</v>
@@ -39977,7 +39973,7 @@
         <v>117</v>
       </c>
       <c r="E527" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="F527" t="s">
         <v>583</v>
@@ -41677,7 +41673,7 @@
         <v>285</v>
       </c>
       <c r="E590" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F590" t="s">
         <v>646</v>
@@ -41704,7 +41700,7 @@
         <v>286</v>
       </c>
       <c r="E591" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="F591" t="s">
         <v>647</v>
@@ -46031,11 +46027,12 @@
         <v>16560</v>
       </c>
       <c r="H750">
-        <v>0.9</v>
+        <f xml:space="preserve"> 0.9 * 12</f>
+        <v>10.8</v>
       </c>
       <c r="I750">
         <f t="shared" si="19"/>
-        <v>15462.18487394958</v>
+        <v>1288.5154061624651</v>
       </c>
       <c r="J750" s="3">
         <v>45952</v>
@@ -57512,7 +57509,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1109" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1109">
         <v>104538100</v>
       </c>
@@ -57542,7 +57539,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1110" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1110">
         <v>104537550</v>
       </c>
@@ -57572,7 +57569,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1111" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1111">
         <v>104518990</v>
       </c>
@@ -57602,7 +57599,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1112" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1112">
         <v>104531630</v>
       </c>
@@ -57632,7 +57629,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1113" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1113">
         <v>201210650</v>
       </c>
@@ -57662,7 +57659,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1114" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1114">
         <v>201221650</v>
       </c>
@@ -57692,7 +57689,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1115" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1115">
         <v>104523080</v>
       </c>
@@ -57722,7 +57719,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1116" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1116">
         <v>104532130</v>
       </c>
@@ -57752,7 +57749,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1117" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1117">
         <v>104527550</v>
       </c>
@@ -57782,7 +57779,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1118" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1118">
         <v>104535150</v>
       </c>
@@ -57812,7 +57809,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1119" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1119">
         <v>104535170</v>
       </c>
@@ -57842,7 +57839,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1120" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1120">
         <v>104535190</v>
       </c>
@@ -57872,7 +57869,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1121" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1121">
         <v>150000094</v>
       </c>
@@ -57902,7 +57899,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1122" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1122">
         <v>150000092</v>
       </c>
@@ -57932,7 +57929,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1123" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1123">
         <v>150001049</v>
       </c>
@@ -57962,7 +57959,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1124" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1124">
         <v>150000093</v>
       </c>
@@ -57992,7 +57989,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1125" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1125">
         <v>201700302</v>
       </c>
@@ -58022,7 +58019,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1126" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1126">
         <v>104511850</v>
       </c>
@@ -58052,7 +58049,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1127" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1127">
         <v>104522460</v>
       </c>
@@ -58082,7 +58079,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1128" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1128">
         <v>201700307</v>
       </c>
@@ -58112,7 +58109,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1129" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1129">
         <v>104543270</v>
       </c>
@@ -58142,7 +58139,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1130" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1130">
         <v>104527930</v>
       </c>
@@ -58172,7 +58169,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1131" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1131">
         <v>104544100</v>
       </c>
@@ -58202,7 +58199,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1132" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1132">
         <v>201700306</v>
       </c>
@@ -58232,7 +58229,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1133" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1133">
         <v>150000772</v>
       </c>
@@ -58262,7 +58259,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1134" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1134">
         <v>104527910</v>
       </c>
@@ -58292,7 +58289,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1135" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1135">
         <v>104521580</v>
       </c>
@@ -58322,7 +58319,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1136" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1136">
         <v>104522380</v>
       </c>
@@ -58352,7 +58349,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1137" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1137">
         <v>104522330</v>
       </c>
@@ -58382,7 +58379,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1138" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1138">
         <v>104531470</v>
       </c>
@@ -58413,7 +58410,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1139" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1139">
         <v>150001763</v>
       </c>
@@ -58443,7 +58440,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1140" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1140">
         <v>150000764</v>
       </c>
@@ -58473,7 +58470,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1141" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1141">
         <v>150000862</v>
       </c>
@@ -58503,7 +58500,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1142" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1142">
         <v>201703050</v>
       </c>
@@ -58533,7 +58530,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1143" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1143">
         <v>150000769</v>
       </c>
@@ -58563,7 +58560,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1144" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1144">
         <v>150000761</v>
       </c>
@@ -58593,7 +58590,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1145" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1145">
         <v>150001530</v>
       </c>
@@ -58623,7 +58620,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1146" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1146">
         <v>150000095</v>
       </c>
@@ -58653,7 +58650,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1147" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1147">
         <v>150001771</v>
       </c>
@@ -58683,7 +58680,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1148" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1148">
         <v>150000718</v>
       </c>
@@ -58713,7 +58710,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1149" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1149">
         <v>104537880</v>
       </c>
@@ -58743,7 +58740,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1150" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1150">
         <v>104534350</v>
       </c>
@@ -58773,7 +58770,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1151" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1151">
         <v>104534360</v>
       </c>
@@ -58803,7 +58800,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1152" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1152">
         <v>104541810</v>
       </c>
@@ -58833,7 +58830,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1153" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1153">
         <v>150001143</v>
       </c>
@@ -58893,7 +58890,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1155" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1155">
         <v>104303640</v>
       </c>
@@ -58923,7 +58920,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1156" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1156">
         <v>201200010</v>
       </c>
@@ -58953,7 +58950,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1157" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1157">
         <v>150000002</v>
       </c>
@@ -58983,7 +58980,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1158" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1158">
         <v>150000378</v>
       </c>
@@ -59013,7 +59010,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1159" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1159">
         <v>150000379</v>
       </c>
@@ -59043,7 +59040,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1160" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1160">
         <v>150000001</v>
       </c>
@@ -59073,7 +59070,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1161" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1161">
         <v>100093620</v>
       </c>
@@ -59103,7 +59100,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1162" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1162">
         <v>100093780</v>
       </c>
@@ -59133,7 +59130,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1163" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1163">
         <v>104542680</v>
       </c>
@@ -59163,7 +59160,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1164" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1164">
         <v>104300530</v>
       </c>
@@ -59223,7 +59220,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1166" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1166">
         <v>104534090</v>
       </c>
@@ -59253,7 +59250,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1167" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1167">
         <v>150001692</v>
       </c>
@@ -59283,7 +59280,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1168" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1168">
         <v>104526090</v>
       </c>
@@ -59313,7 +59310,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1169" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1169">
         <v>104525040</v>
       </c>
@@ -59343,7 +59340,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1170" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1170">
         <v>150000983</v>
       </c>
@@ -59373,7 +59370,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1171" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1171">
         <v>104521820</v>
       </c>
@@ -59403,7 +59400,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1172" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1172">
         <v>104521730</v>
       </c>
@@ -59433,7 +59430,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1173" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1173">
         <v>104534450</v>
       </c>
@@ -59463,7 +59460,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1174" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1174">
         <v>104534440</v>
       </c>
@@ -59493,7 +59490,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1175" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1175">
         <v>104539200</v>
       </c>
@@ -59523,7 +59520,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1176" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1176">
         <v>104539430</v>
       </c>
@@ -59554,7 +59551,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1177" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1177">
         <v>104521960</v>
       </c>
@@ -59585,7 +59582,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1178" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1178">
         <v>150000367</v>
       </c>
@@ -59615,7 +59612,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1179" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1179">
         <v>150000369</v>
       </c>
@@ -59645,7 +59642,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1180" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1180">
         <v>150001186</v>
       </c>
@@ -59675,7 +59672,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1181" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1181">
         <v>150000368</v>
       </c>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icbfsfood-my.sharepoint.com/personal/scatalanv_icbfs_cl/Documents/posicionamiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6166" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5085F3E3-0A13-45C9-B186-E376C5C98654}"/>
+  <xr:revisionPtr revIDLastSave="6182" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ADA94FE-D442-4F9B-AEA6-78B824741F04}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5068" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="1262">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -3826,6 +3826,9 @@
   </si>
   <si>
     <t>https://www.mybidfood.cl/#/products/detail/203510006</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/200201017</t>
   </si>
 </sst>
 </file>
@@ -23331,11 +23334,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D507D2F6-219C-44EE-8F13-68F6A84834B5}">
-  <dimension ref="A1:L1185"/>
+  <dimension ref="A1:L1186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="L1186" sqref="L1186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -59835,6 +59838,37 @@
         <v>45967</v>
       </c>
       <c r="L1185" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1186">
+        <v>104351590</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1186" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G1186">
+        <v>49245</v>
+      </c>
+      <c r="H1186">
+        <f>76 * 0.07</f>
+        <v>5.32</v>
+      </c>
+      <c r="I1186" s="5">
+        <f t="shared" ref="I1186" si="38">G1186/H1186</f>
+        <v>9256.5789473684199</v>
+      </c>
+      <c r="J1186" s="3">
+        <v>45971</v>
+      </c>
+      <c r="L1186" t="s">
         <v>1066</v>
       </c>
     </row>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icbfsfood-my.sharepoint.com/personal/scatalanv_icbfs_cl/Documents/posicionamiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6182" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ADA94FE-D442-4F9B-AEA6-78B824741F04}"/>
+  <xr:revisionPtr revIDLastSave="6193" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A98D7F4-D309-4C32-88DE-A1BF966B425B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$L$1185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$L$1186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="1263">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -3829,6 +3829,9 @@
   </si>
   <si>
     <t>https://www.mybidfood.cl/#/products/detail/200201017</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/200250010</t>
   </si>
 </sst>
 </file>
@@ -23338,7 +23341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1186" sqref="L1186"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52466,7 +52469,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="943" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A943">
         <v>104527430</v>
       </c>
@@ -52478,17 +52481,17 @@
         <v>584</v>
       </c>
       <c r="F943" s="1" t="s">
-        <v>1072</v>
+        <v>1262</v>
       </c>
       <c r="G943">
-        <v>3070</v>
+        <v>3447</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I943" s="5">
         <f t="shared" si="28"/>
-        <v>3070</v>
+        <v>1723.5</v>
       </c>
       <c r="J943" s="3">
         <v>45960</v>
@@ -52546,11 +52549,11 @@
         <v>3070</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I945" s="5">
         <f t="shared" si="28"/>
-        <v>3070</v>
+        <v>1535</v>
       </c>
       <c r="J945" s="3">
         <v>45960</v>
@@ -59841,7 +59844,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="1186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1186" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1186">
         <v>104351590</v>
       </c>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icbfsfood-my.sharepoint.com/personal/scatalanv_icbfs_cl/Documents/posicionamiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6193" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A98D7F4-D309-4C32-88DE-A1BF966B425B}"/>
+  <xr:revisionPtr revIDLastSave="6228" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ACB1890-DFCC-476D-B4A1-2833A253B03B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$L$1186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$L$1187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="1264">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -3832,6 +3832,9 @@
   </si>
   <si>
     <t>https://www.mybidfood.cl/#/products/detail/200250010</t>
+  </si>
+  <si>
+    <t>https://www.mybidfood.cl/#/products/detail/204300067</t>
   </si>
 </sst>
 </file>
@@ -23337,11 +23340,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D507D2F6-219C-44EE-8F13-68F6A84834B5}">
-  <dimension ref="A1:L1186"/>
+  <dimension ref="A1:L1187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27258,17 +27261,15 @@
       <c r="F121" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="G121" t="e">
-        <f>_xlfn.XLOOKUP(A121,'[1]BD LP'!$B:$B,'[1]BD LP'!$Y:$Y)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H121" t="e">
-        <f>_xlfn.XLOOKUP(A121,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I121" s="5" t="e">
+      <c r="G121">
+        <v>7590</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121" s="5">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>7590</v>
       </c>
       <c r="J121" s="3">
         <v>45947</v>
@@ -28730,17 +28731,15 @@
       <c r="F167" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="G167" t="e">
-        <f>_xlfn.XLOOKUP(A167,'[1]BD LP'!$B:$B,'[1]BD LP'!$Y:$Y)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H167" t="e">
-        <f>_xlfn.XLOOKUP(A167,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I167" s="5" t="e">
+      <c r="G167">
+        <v>7890</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" s="5">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>7890</v>
       </c>
       <c r="J167" s="3">
         <v>45947</v>
@@ -52469,7 +52468,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="943" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A943">
         <v>104527430</v>
       </c>
@@ -59865,13 +59864,44 @@
         <v>5.32</v>
       </c>
       <c r="I1186" s="5">
-        <f t="shared" ref="I1186" si="38">G1186/H1186</f>
+        <f t="shared" ref="I1186:I1187" si="38">G1186/H1186</f>
         <v>9256.5789473684199</v>
       </c>
       <c r="J1186" s="3">
         <v>45971</v>
       </c>
       <c r="L1186" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1187">
+        <v>104524330</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1187" s="1"/>
+      <c r="E1187" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1187" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G1187">
+        <v>40680</v>
+      </c>
+      <c r="H1187">
+        <v>12</v>
+      </c>
+      <c r="I1187" s="5">
+        <f t="shared" si="38"/>
+        <v>3390</v>
+      </c>
+      <c r="J1187" s="3">
+        <v>45947</v>
+      </c>
+      <c r="L1187" t="s">
         <v>1066</v>
       </c>
     </row>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icbfsfood-my.sharepoint.com/personal/scatalanv_icbfs_cl/Documents/posicionamiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6228" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ACB1890-DFCC-476D-B4A1-2833A253B03B}"/>
+  <xr:revisionPtr revIDLastSave="6237" documentId="11_AD4D2F04E46CFB4ACB3E200E4DD7FD88683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFDAE5BC-53FC-4039-9DF2-AA49113F4F14}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3841,7 +3841,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3869,6 +3869,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3901,7 +3908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3919,6 +3926,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -23344,7 +23352,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H121" sqref="H121"/>
+      <selection pane="bottomLeft" activeCell="A325" sqref="A325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33771,8 +33779,8 @@
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A325">
-        <v>104539700</v>
+      <c r="A325" s="9">
+        <v>150001954</v>
       </c>
       <c r="B325" t="s">
         <v>380</v>
@@ -33783,20 +33791,18 @@
       <c r="F325" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="G325" t="e">
-        <f>_xlfn.XLOOKUP(A325,'[1]BD LP'!$B:$B,'[1]BD LP'!$Y:$Y)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H325" t="e">
-        <f>_xlfn.XLOOKUP(A325,'[1]BD LP'!$B:$B,'[1]BD LP'!$AC:$AC)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I325" s="5" t="e">
+      <c r="G325">
+        <v>7390</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325" s="5">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>7390</v>
       </c>
       <c r="J325" s="3">
-        <v>45947</v>
+        <v>45979</v>
       </c>
       <c r="L325" t="s">
         <v>980</v>
@@ -47943,8 +47949,8 @@
       </c>
     </row>
     <row r="808" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A808">
-        <v>104539700</v>
+      <c r="A808" s="9">
+        <v>150001954</v>
       </c>
       <c r="B808" t="s">
         <v>904</v>
